--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.oa.training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E62BBD2-25C1-4C3F-9075-9D7620DDCAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41844" yWindow="-5280" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -14,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="160">
   <si>
     <t>key</t>
   </si>
@@ -203,12 +200,6 @@
     <t>指定处理人</t>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-  </si>
-  <si>
-    <t>任务单：${zn.taskSerial}分派给了“${un.acceptedBy.realname}”。</t>
-  </si>
-  <si>
     <t>ATOM</t>
   </si>
   <si>
@@ -252,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>process.oa.training</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$zn.status == "PENDING" and $zn.acceptedBy != null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$zo.phase == "PENDING" and $zn.flowEnd == false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,13 +413,134 @@
   </si>
   <si>
     <t>aa37d072-c767-471d-bb83-4f23cdaaf785</t>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}转给了“${un.acceptedBy.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“${lo.realname}”将任务单：${zn.taskSerial}分派给了“${un.toUser.realname}”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "PENDING" and $zn.toUser != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPROVAL</t>
+  </si>
+  <si>
+    <t>审批意见</t>
+  </si>
+  <si>
+    <t>$zn.commentApproval != null</t>
+  </si>
+  <si>
+    <t>通过：${zn.commentApproval}</t>
+  </si>
+  <si>
+    <t>commentApproval</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.approve" and $zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>拒绝：${zn.commentReject}</t>
+  </si>
+  <si>
+    <t>commentReject</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.admit" and $zn.commentReject != null</t>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+  </si>
+  <si>
+    <t>附件变更</t>
+  </si>
+  <si>
+    <t>$zn.linkageAttachment != null</t>
+  </si>
+  <si>
+    <t>“${lo.realname}” ${zn.__message}</t>
+  </si>
+  <si>
+    <t>linkageAttachment</t>
+  </si>
+  <si>
+    <t>JSON:workflow/linkage/attachment-rule.json</t>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.running" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.summary" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zo.taskKey == "e.begin" and $zn.commentReject != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentReject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>861dcb87-99c3-46af-b5b5-dbca385939ba</t>
+  </si>
+  <si>
+    <t>054406f6-9c6c-49ab-a805-9533f88981ae</t>
+  </si>
+  <si>
+    <t>99680acb-5e50-4379-9fce-c1f2fb41aa11</t>
+  </si>
+  <si>
+    <t>ccd506ca-0cbe-46b3-9cd3-4917983a4522</t>
+  </si>
+  <si>
+    <t>242cffdb-3462-4ef7-a34b-e2b3c156f1cb</t>
+  </si>
+  <si>
+    <t>de78688b-29a0-4810-b95f-5244a8cac5ac</t>
+  </si>
+  <si>
+    <t>510b1db9-cc21-4072-9b0a-8b1aeaea08fc</t>
+  </si>
+  <si>
+    <t>e242ea23-c2b7-4fb4-8751-99becc47cece</t>
+  </si>
+  <si>
+    <t>457c682c-52e3-401b-a0b4-d403c052797d</t>
+  </si>
+  <si>
+    <t>fe60bfbd-f204-486f-bb9d-2c2690b6a7c3</t>
+  </si>
+  <si>
+    <t>2c6b8233-e1ae-43a7-8b11-e49fca4af37f</t>
+  </si>
+  <si>
+    <t>5463bb63-afd4-4a09-b9e7-177fc4c3a26e</t>
+  </si>
+  <si>
+    <t>e179dba0-ffcd-4364-ac2f-ed1f21140b72</t>
+  </si>
+  <si>
+    <t>2e3b8779-d5c3-4fdc-b9cf-34fd1f6188fc</t>
+  </si>
+  <si>
+    <t>857fcc22-9a4d-474e-9643-1806be6f8210</t>
+  </si>
+  <si>
+    <t>a0046316-0d7b-4f68-a0ab-7568da89a6ae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,6 +569,13 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -583,10 +694,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,8 +733,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,9 +746,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{FACDF805-D922-4FFB-A197-2E8CFA9724F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -940,18 +1069,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -959,16 +1088,16 @@
     <col min="1" max="1" width="51.08984375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="77.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
@@ -1101,10 +1230,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
@@ -1128,7 +1257,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="b">
@@ -1136,17 +1265,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>41</v>
@@ -1170,7 +1299,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="b">
@@ -1178,17 +1307,17 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>35</v>
@@ -1212,7 +1341,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="b">
@@ -1220,17 +1349,17 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>35</v>
@@ -1254,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="b">
@@ -1262,17 +1391,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>35</v>
@@ -1296,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="b">
@@ -1304,17 +1433,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>35</v>
@@ -1338,7 +1467,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="b">
@@ -1346,17 +1475,17 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>41</v>
@@ -1371,7 +1500,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>43</v>
@@ -1380,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="b">
@@ -1388,17 +1517,17 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
@@ -1413,16 +1542,16 @@
         <v>56</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="b">
@@ -1430,61 +1559,61 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L13" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>41</v>
@@ -1508,7 +1637,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="b">
@@ -1516,17 +1645,17 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>41</v>
@@ -1550,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="b">
@@ -1558,20 +1687,20 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>36</v>
@@ -1580,19 +1709,19 @@
         <v>1005</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="b">
@@ -1600,20 +1729,20 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>36</v>
@@ -1622,19 +1751,19 @@
         <v>1010</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="b">
@@ -1642,64 +1771,64 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="I18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>36</v>
@@ -1711,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>46</v>
@@ -1720,7 +1849,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11" t="b">
@@ -1728,20 +1857,20 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>36</v>
@@ -1753,7 +1882,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>49</v>
@@ -1762,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11" t="b">
@@ -1770,20 +1899,20 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>36</v>
@@ -1792,19 +1921,19 @@
         <v>1005</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11" t="b">
@@ -1812,20 +1941,20 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>36</v>
@@ -1834,19 +1963,19 @@
         <v>1010</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="b">
@@ -1854,64 +1983,64 @@
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="9">
         <v>1010</v>
       </c>
       <c r="F23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="I23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>36</v>
@@ -1923,7 +2052,7 @@
         <v>44</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>46</v>
@@ -1932,7 +2061,7 @@
         <v>40</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11" t="b">
@@ -1940,20 +2069,20 @@
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>36</v>
@@ -1965,7 +2094,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>49</v>
@@ -1974,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="b">
@@ -1982,20 +2111,20 @@
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>36</v>
@@ -2004,19 +2133,19 @@
         <v>1005</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="b">
@@ -2024,20 +2153,20 @@
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>36</v>
@@ -2046,19 +2175,19 @@
         <v>1010</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="b">
@@ -2066,64 +2195,64 @@
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="9">
         <v>1010</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="I28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L28" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>36</v>
@@ -2135,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>46</v>
@@ -2144,7 +2273,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11" t="b">
@@ -2152,20 +2281,20 @@
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>36</v>
@@ -2177,7 +2306,7 @@
         <v>47</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>49</v>
@@ -2186,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11" t="b">
@@ -2194,20 +2323,20 @@
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>36</v>
@@ -2216,19 +2345,19 @@
         <v>1005</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11" t="b">
@@ -2236,20 +2365,20 @@
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>36</v>
@@ -2258,19 +2387,19 @@
         <v>1010</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11" t="b">
@@ -2278,64 +2407,64 @@
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="9">
         <v>1010</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="I33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L33" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>36</v>
@@ -2347,7 +2476,7 @@
         <v>44</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>46</v>
@@ -2356,7 +2485,7 @@
         <v>40</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11" t="b">
@@ -2364,20 +2493,20 @@
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>36</v>
@@ -2389,7 +2518,7 @@
         <v>47</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>49</v>
@@ -2398,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11" t="b">
@@ -2406,20 +2535,20 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>36</v>
@@ -2428,19 +2557,19 @@
         <v>1020</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="I36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11" t="b">
@@ -2448,10 +2577,726 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L37" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L39" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L41" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L43" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+    </row>
+    <row r="45" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+    </row>
+    <row r="46" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="23">
+        <v>2010</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="23">
+        <v>2010</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="23">
+        <v>2010</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L49" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="23">
+        <v>2010</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="51" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="23">
+        <v>2010</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+    </row>
+    <row r="52" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="23">
+        <v>2010</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.oa.training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E62BBD2-25C1-4C3F-9075-9D7620DDCAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE345C-661A-4573-98D4-90891E8B902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="162">
   <si>
     <t>key</t>
   </si>
@@ -182,9 +182,6 @@
     <t>拒绝</t>
   </si>
   <si>
-    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
-  </si>
-  <si>
     <t>“${lo.realname}”拒绝了任务单：${zn.taskSerial}，审批未通过。</t>
   </si>
   <si>
@@ -534,6 +531,17 @@
   </si>
   <si>
     <t>a0046316-0d7b-4f68-a0ab-7568da89a6ae</t>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zn.phase == "REJECTED"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$zn.status == "DRAFT" and $zo.acceptedBy != null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28f9bc6b-ec73-4d9e-8389-1466a484d7d7</t>
   </si>
 </sst>
 </file>
@@ -698,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,22 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P52"/>
+  <dimension ref="A2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1230,10 +1222,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
@@ -1257,7 +1249,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="b">
@@ -1265,17 +1257,17 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>41</v>
@@ -1299,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="b">
@@ -1307,59 +1299,61 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
+      <c r="D7" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>35</v>
@@ -1367,23 +1361,23 @@
       <c r="D8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="b">
@@ -1391,17 +1385,17 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>35</v>
@@ -1410,22 +1404,22 @@
         <v>36</v>
       </c>
       <c r="E9" s="17">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="b">
@@ -1433,17 +1427,17 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>35</v>
@@ -1451,23 +1445,23 @@
       <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="17">
         <v>1015</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>53</v>
+      <c r="F10" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="b">
@@ -1475,41 +1469,41 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="9">
-        <v>1005</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
+        <v>1015</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="b">
@@ -1517,17 +1511,17 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>41</v>
@@ -1536,22 +1530,22 @@
         <v>36</v>
       </c>
       <c r="E12" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11" t="b">
@@ -1559,103 +1553,103 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>57</v>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L14" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>41</v>
@@ -1667,19 +1661,19 @@
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11" t="b">
@@ -1687,41 +1681,41 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="b">
@@ -1729,41 +1723,41 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="b">
@@ -1771,106 +1765,106 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K18" s="11"/>
       <c r="L18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E19" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L19" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>36</v>
@@ -1879,19 +1873,19 @@
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11" t="b">
@@ -1899,41 +1893,41 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11" t="b">
@@ -1941,41 +1935,41 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="b">
@@ -1983,106 +1977,106 @@
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E23" s="9">
         <v>1010</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E24" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L24" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>36</v>
@@ -2091,19 +2085,19 @@
         <v>1015</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="b">
@@ -2111,41 +2105,41 @@
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="b">
@@ -2153,41 +2147,41 @@
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="b">
@@ -2195,106 +2189,106 @@
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E28" s="9">
         <v>1010</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K28" s="11"/>
       <c r="L28" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E29" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L29" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>36</v>
@@ -2303,19 +2297,19 @@
         <v>1015</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11" t="b">
@@ -2323,41 +2317,41 @@
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="9">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11" t="b">
@@ -2365,41 +2359,41 @@
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="9">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11" t="b">
@@ -2407,106 +2401,106 @@
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E33" s="9">
         <v>1010</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K33" s="11"/>
       <c r="L33" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E34" s="9">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="L34" s="11" t="b">
         <v>1</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>36</v>
@@ -2515,19 +2509,19 @@
         <v>1015</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11" t="b">
@@ -2535,41 +2529,41 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="9">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11" t="b">
@@ -2577,726 +2571,768 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="11"/>
+      <c r="N38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="B39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L45" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L46" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2005</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L47" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38" s="25"/>
-      <c r="N38" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L39" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="28" t="s">
+      <c r="D49" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L41" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" s="25"/>
-      <c r="N42" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-    </row>
-    <row r="43" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K43" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-    </row>
-    <row r="44" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="L44" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="L45" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="25"/>
-      <c r="N45" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-    </row>
-    <row r="46" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="23">
-        <v>2005</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" s="25"/>
-      <c r="N46" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="27" t="s">
+      <c r="E49" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="23">
+      <c r="G49" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="9">
         <v>2010</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="H50" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="I50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I47" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="25" t="s">
+      <c r="L50" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="L47" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N47" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="27" t="s">
+      <c r="N50" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="23">
+      <c r="G51" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="9">
         <v>2010</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F52" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="H52" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="I52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I48" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="25" t="s">
+      <c r="L52" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N48" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="27" t="s">
+      <c r="N52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="23">
-        <v>2010</v>
-      </c>
-      <c r="F49" s="25" t="s">
+      <c r="G53" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="H53" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="I53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49" s="25" t="s">
+      <c r="L53" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="L49" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N49" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="23">
-        <v>2010</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L50" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N50" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-    </row>
-    <row r="51" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="23">
-        <v>2010</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L51" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-    </row>
-    <row r="52" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="23">
-        <v>2010</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="K52" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L52" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N52" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
+      <c r="N53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
+++ b/zero-erp/src/main/resources/plugin/erp/oob/rule/process.oa.training/activity-rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xuanhong\zero-ws\zero-extension\zero-erp\src\main\resources\plugin\erp\oob\rule\process.oa.training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE345C-661A-4573-98D4-90891E8B902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC68B39-9C84-462B-B8BF-E0BD87968869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="159">
   <si>
     <t>key</t>
   </si>
@@ -65,9 +65,6 @@
     <t>消息模板</t>
   </si>
   <si>
-    <t>规则名空间</t>
-  </si>
-  <si>
     <t>主模型ID</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>ruleMessage</t>
   </si>
   <si>
-    <t>ruleNs</t>
-  </si>
-  <si>
     <t>ruleIdentifier</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
   </si>
   <si>
     <t>“${lo.realname}”暂存了${zw.name}工单：${zn.serial}。</t>
-  </si>
-  <si>
-    <t>cn.originx.vie.app.xc</t>
   </si>
   <si>
     <t>e.approve</t>
@@ -1069,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P53"/>
+  <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -1085,18 +1076,17 @@
     <col min="6" max="6" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="69.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="77.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.81640625" style="2"/>
+    <col min="9" max="9" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1118,9 +1108,8 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,2173 +1155,2020 @@
       <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="E5" s="9">
         <v>1005</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9">
         <v>1005</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="I6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9">
         <v>1010</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9">
         <v>1010</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="17">
         <v>1010</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="17">
         <v>1015</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="9">
         <v>1015</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="9">
         <v>1005</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="I12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="9">
         <v>1010</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="9">
         <v>1010</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="9">
         <v>1015</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="11"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="9">
         <v>1015</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="9">
         <v>1005</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="9">
         <v>1010</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="11"/>
       <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" s="9">
         <v>1010</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="K19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="9">
         <v>1015</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9">
         <v>1015</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="9">
         <v>1005</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="9">
         <v>1010</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" s="9">
         <v>1010</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="11"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="9">
         <v>1015</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="9">
         <v>1015</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="9">
         <v>1005</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="9">
         <v>1010</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="9">
         <v>1010</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" s="11"/>
       <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="9">
         <v>1015</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="11"/>
       <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="9">
         <v>1015</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" s="11"/>
       <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="9">
         <v>1005</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N32" s="11"/>
       <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33" s="9">
         <v>1010</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="11"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E34" s="9">
         <v>1010</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="9">
         <v>1015</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="11"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" s="9">
         <v>1015</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="11"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="9">
         <v>1020</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E38" s="9">
         <v>2005</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L38" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K38" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E39" s="9">
         <v>2005</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>40</v>
+        <v>127</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K39" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="11"/>
       <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E40" s="9">
         <v>2005</v>
       </c>
       <c r="F40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L40" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K40" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40" s="11"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E41" s="9">
         <v>2005</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>40</v>
+        <v>127</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41" s="11"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="9">
         <v>2005</v>
       </c>
       <c r="F42" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K42" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" s="9">
         <v>2005</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>40</v>
+        <v>127</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L43" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K43" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N43" s="11"/>
       <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E44" s="9">
         <v>2005</v>
       </c>
       <c r="F44" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K44" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N44" s="11"/>
       <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="9">
         <v>2005</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>40</v>
+        <v>127</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K45" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E46" s="9">
         <v>2005</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="K46" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N46" s="11"/>
       <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" s="9">
         <v>2005</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H47" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="E48" s="9">
         <v>2010</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="K48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N48" s="11"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E49" s="9">
         <v>2010</v>
       </c>
       <c r="F49" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="K49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" s="11"/>
       <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E50" s="9">
         <v>2010</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="K50" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L50" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N50" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N50" s="11"/>
       <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E51" s="9">
         <v>2010</v>
       </c>
       <c r="F51" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="K51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N51" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N51" s="11"/>
       <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E52" s="9">
         <v>2010</v>
       </c>
       <c r="F52" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="K52" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L52" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N52" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="11"/>
       <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E53" s="9">
         <v>2010</v>
       </c>
       <c r="F53" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="K53" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N53" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="M53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N53" s="11"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
